--- a/Library/TestData.xlsx
+++ b/Library/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\PycharmProjects\The-Internet-Tests\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C94214-F2EF-4D3D-BAB8-5FBF58A5AC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C3FE8B-0A57-400B-ADE7-62116928F939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39000" yWindow="1950" windowWidth="28800" windowHeight="15345" xr2:uid="{AA23A471-C8BF-4B2F-BB9B-6923386DE66B}"/>
+    <workbookView xWindow="9960" yWindow="4275" windowWidth="28800" windowHeight="15345" xr2:uid="{AA23A471-C8BF-4B2F-BB9B-6923386DE66B}"/>
   </bookViews>
   <sheets>
     <sheet name="BasicAuthInvalidData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Username</t>
   </si>
@@ -71,54 +71,6 @@
     <t>pbCzNEVPxA</t>
   </si>
   <si>
-    <t>dG8tDWuARZ</t>
-  </si>
-  <si>
-    <t>yNSxqpsByM</t>
-  </si>
-  <si>
-    <t>GVPYPnokPM</t>
-  </si>
-  <si>
-    <t>duFEVRNJXD</t>
-  </si>
-  <si>
-    <t>262CGZz5vB</t>
-  </si>
-  <si>
-    <t>sAmFfQJkzt</t>
-  </si>
-  <si>
-    <t>4EdgLGG7Xk</t>
-  </si>
-  <si>
-    <t>HyhxanJyhU</t>
-  </si>
-  <si>
-    <t>ZuEsCuNYqc</t>
-  </si>
-  <si>
-    <t>ZomjBeycvn</t>
-  </si>
-  <si>
-    <t>6kTBY2Q34v</t>
-  </si>
-  <si>
-    <t>tHa6G39kmC</t>
-  </si>
-  <si>
-    <t>9BthESYrbA</t>
-  </si>
-  <si>
-    <t>NQ6wug3cC6</t>
-  </si>
-  <si>
-    <t>BM3GtsojkG</t>
-  </si>
-  <si>
-    <t>s5JJ5xavph</t>
-  </si>
-  <si>
     <t>UcmLumVBJJ</t>
   </si>
   <si>
@@ -144,54 +96,6 @@
   </si>
   <si>
     <t>LSoxagTcuV</t>
-  </si>
-  <si>
-    <t>fvcgbXpUMc</t>
-  </si>
-  <si>
-    <t>eg57EUh78s</t>
-  </si>
-  <si>
-    <t>pQ4af8ZR3n</t>
-  </si>
-  <si>
-    <t>CUHJc3vpJm</t>
-  </si>
-  <si>
-    <t>SjGo5hyQHt</t>
-  </si>
-  <si>
-    <t>eNe4hZ7jgj</t>
-  </si>
-  <si>
-    <t>GNYT38uRPd</t>
-  </si>
-  <si>
-    <t>C3YJB4dm2F</t>
-  </si>
-  <si>
-    <t>JMBdPu3SGn</t>
-  </si>
-  <si>
-    <t>ZGg6BAGR8s</t>
-  </si>
-  <si>
-    <t>tkF4HaprXH</t>
-  </si>
-  <si>
-    <t>xk5Lycsqxa</t>
-  </si>
-  <si>
-    <t>wCgArhU3yD</t>
-  </si>
-  <si>
-    <t>JoerFktWbU</t>
-  </si>
-  <si>
-    <t>CM9tnNgVKh</t>
-  </si>
-  <si>
-    <t>yaTkg4Yejr</t>
   </si>
 </sst>
 </file>
@@ -544,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B069788-5850-4C82-A66F-8144CB5C781E}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +470,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -574,7 +478,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -582,7 +486,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -590,7 +494,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -598,7 +502,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -606,7 +510,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -614,7 +518,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -622,7 +526,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -630,138 +534,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
